--- a/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni exp.xlsx
+++ b/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26439E-2511-48BF-80B4-FD6250091B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702F01E-52FC-4549-A508-9315F9CBE324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6BFA755-0FD6-4639-9783-26E7EAE67985}"/>
   </bookViews>
@@ -15244,17 +15244,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E98CA-92BD-4A09-B3F8-488A8B627A60}">
   <dimension ref="A1:CR46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="BZ23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="65" max="65" width="13.33203125" customWidth="1"/>
     <col min="83" max="83" width="12" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="12" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.3">

--- a/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni exp.xlsx
+++ b/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni exp.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaiaa\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702F01E-52FC-4549-A508-9315F9CBE324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD0C8B-0514-4008-A0EF-52C9B7E80569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6BFA755-0FD6-4639-9783-26E7EAE67985}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6BFA755-0FD6-4639-9783-26E7EAE67985}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analisi Fattoriale" sheetId="1" r:id="rId1"/>
-    <sheet name="Prove sugli Errori" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Assumptions validation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>I</t>
   </si>
@@ -428,6 +428,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>[-0,03; 0,03]</t>
+  </si>
+  <si>
+    <t>[0,16; 0,23]</t>
+  </si>
+  <si>
+    <t>[-0,11; -0,05]</t>
+  </si>
+  <si>
+    <t>[-0,04; 0,02]</t>
+  </si>
+  <si>
+    <t>[0,49; 0,55]</t>
   </si>
 </sst>
 </file>
@@ -836,7 +854,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Analisi Fattoriale'!$C$44:$G$44</c:f>
+              <c:f>Analysis!$C$47:$G$47</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -859,7 +877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Analisi Fattoriale'!$C$46:$G$46</c:f>
+              <c:f>Analysis!$C$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1036,7 +1054,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Prove sugli Errori'!$Q$1</c:f>
+              <c:f>'Assumptions validation'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1135,7 +1153,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Prove sugli Errori'!$P$2:$P$961</c:f>
+              <c:f>'Assumptions validation'!$P$2:$P$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -4024,7 +4042,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Prove sugli Errori'!$Q$2:$Q$961</c:f>
+              <c:f>'Assumptions validation'!$Q$2:$Q$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -7182,7 +7200,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Prove sugli Errori'!$A$2:$A$961</c:f>
+              <c:f>'Assumptions validation'!$A$2:$A$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -10071,7 +10089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Prove sugli Errori'!$B$2:$B$961</c:f>
+              <c:f>'Assumptions validation'!$B$2:$B$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -14828,15 +14846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>394123</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>89323</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14861,6 +14879,444 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="188065" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD39290A-37CC-40C1-8BB3-3F463F831F9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="59308999" y="7653866"/>
+              <a:ext cx="188065" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD39290A-37CC-40C1-8BB3-3F463F831F9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="59308999" y="7653866"/>
+              <a:ext cx="188065" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378882</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1198033" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3CDC48-6A47-49D6-8D3F-F6793D3E7393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448799" y="3418417"/>
+          <a:ext cx="1198033" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31537</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174837</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="741046" cy="237244"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC0FDC4-AA7A-4556-A129-95D227A89F71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="31537" y="4492837"/>
+              <a:ext cx="741046" cy="237244"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="it-IT" sz="1100">
+                          <a:solidFill>
+                            <a:srgbClr val="836967"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="it-IT" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑡</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="it-IT" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="836967"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr lang="it-IT" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝛼</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="it-IT" sz="1100" i="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t> =1,645</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC0FDC4-AA7A-4556-A129-95D227A89F71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="31537" y="4492837"/>
+              <a:ext cx="741046" cy="237244"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t> =1,645</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15242,17 +15698,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E98CA-92BD-4A09-B3F8-488A8B627A60}">
-  <dimension ref="A1:CR46"/>
+  <dimension ref="A1:CR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="18" max="19" width="11.77734375" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="23" width="10.88671875" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" customWidth="1"/>
+    <col min="30" max="30" width="11.5546875" customWidth="1"/>
+    <col min="31" max="32" width="10.88671875" customWidth="1"/>
+    <col min="33" max="33" width="11.21875" customWidth="1"/>
+    <col min="34" max="34" width="10.88671875" customWidth="1"/>
     <col min="65" max="65" width="13.33203125" customWidth="1"/>
     <col min="83" max="83" width="12" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="12" bestFit="1" customWidth="1"/>
@@ -27294,6 +27776,130 @@
       </c>
     </row>
     <row r="40" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f>D37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1411141391583554E-2</v>
+      </c>
+      <c r="E40">
+        <f>E37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.3719555825563331E-2</v>
+      </c>
+      <c r="F40">
+        <f>F37-1.645*SQRT(CQ42/40)</f>
+        <v>0.16262636013880774</v>
+      </c>
+      <c r="G40">
+        <f>G37-1.645*SQRT(CQ42/40)</f>
+        <v>-0.11319345890815249</v>
+      </c>
+      <c r="H40">
+        <f>H37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.2017838434351326E-2</v>
+      </c>
+      <c r="I40">
+        <f>I37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1611684481128492E-2</v>
+      </c>
+      <c r="J40">
+        <f>J37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1321519395271315E-2</v>
+      </c>
+      <c r="K40">
+        <f>K37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1376087429710792E-2</v>
+      </c>
+      <c r="L40">
+        <f>L37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0613538536030365E-2</v>
+      </c>
+      <c r="M40">
+        <f>M37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0716878699680615E-2</v>
+      </c>
+      <c r="N40">
+        <f>N37-1.645*SQRT(CQ42/40)</f>
+        <v>-4.3336036893921792E-2</v>
+      </c>
+      <c r="O40">
+        <f>O37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0317157479106609E-2</v>
+      </c>
+      <c r="P40">
+        <f>P37-1.645*SQRT(CQ42/40)</f>
+        <v>-0.11227640394855778</v>
+      </c>
+      <c r="Q40">
+        <f>Q37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1352847843943835E-2</v>
+      </c>
+      <c r="R40">
+        <f>R37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0362058560031453E-2</v>
+      </c>
+      <c r="S40">
+        <f>S37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1866499551665713E-2</v>
+      </c>
+      <c r="T40">
+        <f>T37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1238328414200933E-2</v>
+      </c>
+      <c r="U40">
+        <f>U37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1465256539694876E-2</v>
+      </c>
+      <c r="V40">
+        <f>V37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.159531266928426E-2</v>
+      </c>
+      <c r="W40">
+        <f>W37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0317690295352362E-2</v>
+      </c>
+      <c r="X40">
+        <f>X37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1569666551385489E-2</v>
+      </c>
+      <c r="Y40">
+        <f>Y37-1.645*SQRT(CQ42/40)</f>
+        <v>-4.2805780748969582E-2</v>
+      </c>
+      <c r="Z40">
+        <f>Z37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0971537544442835E-2</v>
+      </c>
+      <c r="AA40">
+        <f>AA37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.2213271462758993E-2</v>
+      </c>
+      <c r="AB40">
+        <f>AB37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1069426644104108E-2</v>
+      </c>
+      <c r="AC40">
+        <f>AC37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0809181232291434E-2</v>
+      </c>
+      <c r="AD40">
+        <f>AD37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1933704253196152E-2</v>
+      </c>
+      <c r="AE40">
+        <f>AE37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1209973265206803E-2</v>
+      </c>
+      <c r="AF40">
+        <f>AF37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.2002816812793433E-2</v>
+      </c>
+      <c r="AG40">
+        <f>AG37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1659163804501997E-2</v>
+      </c>
+      <c r="AH40">
+        <f>AH37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0781794067004962E-2</v>
+      </c>
       <c r="CQ40" s="1">
         <f>SUM(D38:AH38)+CQ39</f>
         <v>16.891320951004325</v>
@@ -27303,6 +27909,130 @@
       </c>
     </row>
     <row r="41" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f>D37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1094923061367664E-2</v>
+      </c>
+      <c r="E41">
+        <f>E37+1.645*SQRT(CQ42/40)</f>
+        <v>2.8786508627387884E-2</v>
+      </c>
+      <c r="F41">
+        <f>F37+1.645*SQRT(CQ42/40)</f>
+        <v>0.22513242459175895</v>
+      </c>
+      <c r="G41">
+        <f>G37+1.645*SQRT(CQ42/40)</f>
+        <v>-5.0687394455201269E-2</v>
+      </c>
+      <c r="H41">
+        <f>H37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0488226018599889E-2</v>
+      </c>
+      <c r="I41">
+        <f>I37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0894379971822726E-2</v>
+      </c>
+      <c r="J41">
+        <f>J37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1184545057679904E-2</v>
+      </c>
+      <c r="K41">
+        <f>K37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1129977023240427E-2</v>
+      </c>
+      <c r="L41">
+        <f>L37+1.645*SQRT(CQ42/40)</f>
+        <v>3.189252591692085E-2</v>
+      </c>
+      <c r="M41">
+        <f>M37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1789185753270603E-2</v>
+      </c>
+      <c r="N41">
+        <f>N37+1.645*SQRT(CQ42/40)</f>
+        <v>1.9170027559029426E-2</v>
+      </c>
+      <c r="O41">
+        <f>O37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2188906973844605E-2</v>
+      </c>
+      <c r="P41">
+        <f>P37+1.645*SQRT(CQ42/40)</f>
+        <v>-4.977033949560656E-2</v>
+      </c>
+      <c r="Q41">
+        <f>Q37+1.645*SQRT(CQ42/40)</f>
+        <v>3.115321660900738E-2</v>
+      </c>
+      <c r="R41">
+        <f>R37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2144005892919769E-2</v>
+      </c>
+      <c r="S41">
+        <f>S37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0639564901285506E-2</v>
+      </c>
+      <c r="T41">
+        <f>T37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1267736038750285E-2</v>
+      </c>
+      <c r="U41">
+        <f>U37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1040807913256342E-2</v>
+      </c>
+      <c r="V41">
+        <f>V37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0910751783666958E-2</v>
+      </c>
+      <c r="W41">
+        <f>W37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2188374157598856E-2</v>
+      </c>
+      <c r="X41">
+        <f>X37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0936397901565733E-2</v>
+      </c>
+      <c r="Y41">
+        <f>Y37+1.645*SQRT(CQ42/40)</f>
+        <v>1.9700283703981636E-2</v>
+      </c>
+      <c r="Z41">
+        <f>Z37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1534526908508387E-2</v>
+      </c>
+      <c r="AA41">
+        <f>AA37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0292792990192226E-2</v>
+      </c>
+      <c r="AB41">
+        <f>AB37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1436637808847111E-2</v>
+      </c>
+      <c r="AC41">
+        <f>AC37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1696883220659784E-2</v>
+      </c>
+      <c r="AD41">
+        <f>AD37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0572360199755066E-2</v>
+      </c>
+      <c r="AE41">
+        <f>AE37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1296091187744415E-2</v>
+      </c>
+      <c r="AF41">
+        <f>AF37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0503247640157785E-2</v>
+      </c>
+      <c r="AG41">
+        <f>AG37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0846900648449225E-2</v>
+      </c>
+      <c r="AH41">
+        <f>AH37+1.645*SQRT(CQ42/40)</f>
+        <v>3.172427038594626E-2</v>
+      </c>
       <c r="CQ41" s="4">
         <f>CQ39*100/CQ40</f>
         <v>3.0771693148714019</v>
@@ -27311,38 +28041,160 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:96" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+    <row r="42" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" t="s">
+        <v>128</v>
+      </c>
+      <c r="O42" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>125</v>
+      </c>
+      <c r="R42" t="s">
+        <v>125</v>
+      </c>
+      <c r="S42" t="s">
+        <v>125</v>
+      </c>
+      <c r="T42" t="s">
+        <v>125</v>
+      </c>
+      <c r="U42" t="s">
+        <v>125</v>
+      </c>
+      <c r="V42" t="s">
+        <v>125</v>
+      </c>
+      <c r="W42" t="s">
+        <v>125</v>
+      </c>
+      <c r="X42" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ42">
+        <f>CQ39/(4*9)</f>
+        <v>1.4438181810576371E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="CQ44">
+        <f>CQ39-1.645*SQRT(CQ42/40)</f>
+        <v>0.48852151295427376</v>
+      </c>
+    </row>
+    <row r="45" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="CQ45">
+        <f>CQ39+1.645*SQRT(CQ42/40)</f>
+        <v>0.55102757740722497</v>
+      </c>
+    </row>
+    <row r="46" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="CQ46" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:96" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E47" t="s">
         <v>116</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>71</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="C46">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49">
         <v>71.209999999999994</v>
       </c>
-      <c r="D46">
+      <c r="D49">
         <v>12.72</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>12.44</v>
       </c>
-      <c r="F46">
+      <c r="F49">
         <v>3.08</v>
       </c>
-      <c r="G46">
-        <f>100-C46-D46-E46-F46</f>
+      <c r="G49">
+        <f>100-C49-D49-E49-F49</f>
         <v>0.55000000000000782</v>
       </c>
     </row>
@@ -27359,7 +28211,7 @@
   <dimension ref="A1:R961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni exp.xlsx
+++ b/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaiaa\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD0C8B-0514-4008-A0EF-52C9B7E80569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187AA839-E367-4E94-98F9-4D2F1A844C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6BFA755-0FD6-4639-9783-26E7EAE67985}"/>
   </bookViews>
@@ -14887,8 +14887,8 @@
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188065" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -14930,6 +14930,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14939,7 +14940,7 @@
                     <m:sSubSup>
                       <m:sSubSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1100">
+                          <a:rPr lang="it-IT" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -14980,7 +14981,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -15114,8 +15115,8 @@
       <xdr:rowOff>174837</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="741046" cy="237244"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CasellaDiTesto 4">
@@ -15162,7 +15163,7 @@
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="it-IT" sz="1100">
+                        <a:rPr lang="it-IT" sz="1100" i="1">
                           <a:solidFill>
                             <a:srgbClr val="836967"/>
                           </a:solidFill>
@@ -15219,7 +15220,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CasellaDiTesto 4">
@@ -15309,6 +15310,136 @@
               <a:r>
                 <a:rPr lang="it-IT" sz="1100"/>
                 <a:t> =1,645</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57361</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="408830" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CasellaDiTesto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF3DECF-B6F1-4004-BDD2-D903B0F5FC8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="57361" y="4290906"/>
+              <a:ext cx="408830" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="it-IT" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝛼</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>=0,10</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CasellaDiTesto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF3DECF-B6F1-4004-BDD2-D903B0F5FC8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="57361" y="4290906"/>
+              <a:ext cx="408830" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>=0,10</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -15700,8 +15831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E98CA-92BD-4A09-B3F8-488A8B627A60}">
   <dimension ref="A1:CR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
